--- a/Images_and_Data/Embedded_Qs/qtest_excel.xlsx
+++ b/Images_and_Data/Embedded_Qs/qtest_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\ModSimPy_Directory\Images_and_Data\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00AA7F52-3049-41A2-B8F7-8288E8F6DC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D627177-2F8E-47ED-92E3-4FE042F9B808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="120" windowWidth="11085" windowHeight="14325" activeTab="3" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="1200" yWindow="1185" windowWidth="16845" windowHeight="13995" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="MultC" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
   <si>
-    <t>What is the color of the car?</t>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
@@ -126,6 +123,9 @@
   </si>
   <si>
     <t>Battlestar Galactica.</t>
+  </si>
+  <si>
+    <t>What is the color of the car?  I mean, if you are looking at the car from really far away, it looks black, but I don't think it is really black.  Can you see closer up?   What is its real color?</t>
   </si>
 </sst>
 </file>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6C7967-0C46-4F3F-B2F4-DFA8B1F9707A}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,57 +491,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -579,10 +579,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -590,10 +590,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -601,10 +601,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -612,10 +612,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -623,10 +623,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -650,13 +650,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -675,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -683,7 +683,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -691,7 +691,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7D16AA-24F2-475C-807B-39CEEE6B996C}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -716,68 +716,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Images_and_Data/Embedded_Qs/qtest_excel.xlsx
+++ b/Images_and_Data/Embedded_Qs/qtest_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D627177-2F8E-47ED-92E3-4FE042F9B808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E062EFF0-8B87-45FF-8F81-93EBE1892AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1185" windowWidth="16845" windowHeight="13995" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="16275" yWindow="1320" windowWidth="11685" windowHeight="13995" activeTab="2" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="MultC" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6C7967-0C46-4F3F-B2F4-DFA8B1F9707A}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -636,61 +636,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E4A378-C52B-465E-833B-740E46756CFE}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>120.3</v>
       </c>
       <c r="B2">
-        <v>120.3</v>
-      </c>
-      <c r="C2">
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Images_and_Data/Embedded_Qs/qtest_excel.xlsx
+++ b/Images_and_Data/Embedded_Qs/qtest_excel.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E062EFF0-8B87-45FF-8F81-93EBE1892AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1544122B-212B-4963-80A6-0E39ACB2257D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16275" yWindow="1320" windowWidth="11685" windowHeight="13995" activeTab="2" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="15975" yWindow="1335" windowWidth="13590" windowHeight="13995" activeTab="4" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="MultC" sheetId="1" r:id="rId1"/>
     <sheet name="MultC_2" sheetId="2" r:id="rId2"/>
     <sheet name="Quant" sheetId="3" r:id="rId3"/>
     <sheet name="MultAns" sheetId="4" r:id="rId4"/>
+    <sheet name="Matching" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>Red</t>
   </si>
@@ -126,6 +127,39 @@
   </si>
   <si>
     <t>What is the color of the car?  I mean, if you are looking at the car from really far away, it looks black, but I don't think it is really black.  Can you see closer up?   What is its real color?</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>State answer</t>
+  </si>
+  <si>
+    <t>Library answer</t>
+  </si>
+  <si>
+    <t>Function answer</t>
+  </si>
+  <si>
+    <t>Metric answer</t>
+  </si>
+  <si>
+    <t>Correct order of key terms</t>
+  </si>
+  <si>
+    <t>Key terms</t>
+  </si>
+  <si>
+    <t>Definitions</t>
   </si>
 </sst>
 </file>
@@ -161,8 +195,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -638,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E4A378-C52B-465E-833B-740E46756CFE}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,4 +808,80 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BCD633-8396-41BB-A7F9-F3516CBD627C}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Images_and_Data/Embedded_Qs/qtest_excel.xlsx
+++ b/Images_and_Data/Embedded_Qs/qtest_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1544122B-212B-4963-80A6-0E39ACB2257D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF531CA-B2EE-48F1-8187-7E00057DBBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15975" yWindow="1335" windowWidth="13590" windowHeight="13995" activeTab="4" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
     <t>Red</t>
   </si>
@@ -153,13 +153,25 @@
     <t>Metric answer</t>
   </si>
   <si>
-    <t>Correct order of key terms</t>
-  </si>
-  <si>
     <t>Key terms</t>
   </si>
   <si>
     <t>Definitions</t>
+  </si>
+  <si>
+    <t>Correct order of definitions</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -815,7 +827,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,21 +840,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1">
-        <v>4</v>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -852,8 +864,8 @@
       <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -863,8 +875,8 @@
       <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -874,8 +886,8 @@
       <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="1">
-        <v>3</v>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>

--- a/Images_and_Data/Embedded_Qs/qtest_excel.xlsx
+++ b/Images_and_Data/Embedded_Qs/qtest_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF531CA-B2EE-48F1-8187-7E00057DBBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC4A88E-EE8C-4727-B2DD-C1676D2DECF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15975" yWindow="1335" windowWidth="13590" windowHeight="13995" activeTab="4" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
   <si>
     <t>Red</t>
   </si>
@@ -147,9 +147,6 @@
     <t>Library answer</t>
   </si>
   <si>
-    <t>Function answer</t>
-  </si>
-  <si>
     <t>Metric answer</t>
   </si>
   <si>
@@ -168,10 +165,19 @@
     <t>B</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Red herring 1</t>
+  </si>
+  <si>
+    <t>Function defintion</t>
+  </si>
+  <si>
+    <t>Red herring 2</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -824,10 +830,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BCD633-8396-41BB-A7F9-F3516CBD627C}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,13 +846,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -854,10 +860,10 @@
         <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -865,7 +871,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -876,7 +882,7 @@
         <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -887,10 +893,20 @@
         <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
-        <v>35</v>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Images_and_Data/Embedded_Qs/qtest_excel.xlsx
+++ b/Images_and_Data/Embedded_Qs/qtest_excel.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC4A88E-EE8C-4727-B2DD-C1676D2DECF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15975" yWindow="1335" windowWidth="13590" windowHeight="13995" activeTab="4" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="15975" yWindow="1335" windowWidth="13590" windowHeight="13995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MultC" sheetId="1" r:id="rId1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>Red</t>
   </si>
@@ -99,9 +98,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Wow, that's way off.</t>
-  </si>
-  <si>
     <t>What is the best kind of bear?</t>
   </si>
   <si>
@@ -150,9 +146,6 @@
     <t>Metric answer</t>
   </si>
   <si>
-    <t>Key terms</t>
-  </si>
-  <si>
     <t>Definitions</t>
   </si>
   <si>
@@ -178,12 +171,15 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>Terms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -531,7 +527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6C7967-0C46-4F3F-B2F4-DFA8B1F9707A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -546,7 +542,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -605,10 +601,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EF158B-CA6E-4845-8BF3-FADC014DDA1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -680,9 +676,6 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -690,7 +683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E4A378-C52B-465E-833B-740E46756CFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -743,7 +736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7D16AA-24F2-475C-807B-39CEEE6B996C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -759,7 +752,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -770,18 +763,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -792,7 +785,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -809,18 +802,18 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -829,11 +822,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BCD633-8396-41BB-A7F9-F3516CBD627C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,67 +839,67 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Images_and_Data/Embedded_Qs/qtest_excel.xlsx
+++ b/Images_and_Data/Embedded_Qs/qtest_excel.xlsx
@@ -605,7 +605,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
